--- a/data/trans_camb/P16A03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,87; 1,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 4,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 6,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,66; 1,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,86; 1,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,27; 3,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 0,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; 1,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; 3,93</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>202,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,21%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,34; 56,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,5; 56,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,57; 86,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,51; 47,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,12; 74,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,25; 165,53</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 0,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; -0,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 2,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 2,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,87; 2,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,03; 0,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 0,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 0,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 0,84</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,97%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,94; 19,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -6,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,69; 225,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,24; 67,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,13; 59,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,89; 8,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,1; 31,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,61; 23,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,52; 28,8</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; -0,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; -0,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 0,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 3,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,18; -0,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 0,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 1,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; -0,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 0,13</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,62%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,6; 2,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,93; 0,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,11; 23,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,26; 67,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,61; -13,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,0; 14,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,3; 37,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,0; -22,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,48; 3,81</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 1,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 1,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 2,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 3,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 0,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,33; 0,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 1,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 0,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 0,97</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,47%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,51%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,56%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,55; 208,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,43; 136,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,69; 217,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,63; 77,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,55; 15,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,04; 11,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,51; 65,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,51; 14,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,72; 36,51</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 0,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 0,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 0,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 3,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 1,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 4,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 1,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 0,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 2,37</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,5%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,24%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,08%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,4%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,33%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,42; 9,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,88; 13,59</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,36; 34,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,52; 78,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,99; 53,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,3; 117,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,75; 41,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,68; 20,91</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 75,66</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; -0,23</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; -0,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 0,49</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 1,79</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; -0,18</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 0,84</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 0,57</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; -0,45</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 0,5</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,44%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,92%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,49%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,96%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,24%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,8%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,18%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,02; -10,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,34; -16,04</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,74; 27,58</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,75; 37,27</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,43; -2,8</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,09; 18,03</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,28; 16,09</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,26; -13,36</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,86; 14,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-0,31</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,44</t>
+          <t>-2,48; 0,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 4,75</t>
+          <t>-2,52; 0,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 6,18</t>
+          <t>-0,7; 2,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 1,85</t>
+          <t>-3,01; 1,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 1,21</t>
+          <t>-3,32; 1,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 3,66</t>
+          <t>-3,66; 0,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 0,85</t>
+          <t>-2,19; 0,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 1,6</t>
+          <t>-2,34; 0,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,93</t>
+          <t>-1,68; 0,98</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-20,19%</t>
+          <t>-57,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>111,08%</t>
+          <t>-61,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>202,2%</t>
+          <t>42,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-52,16%</t>
+          <t>-9,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-56,62%</t>
+          <t>-14,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,84%</t>
+          <t>-25,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-48,85%</t>
+          <t>-21,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-38,9%</t>
+          <t>-25,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>-8,01%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,15; 28,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,09; 26,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,51; 213,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-88,34; 56,7</t>
+          <t>-43,1; 41,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-90,5; 56,91</t>
+          <t>-45,66; 37,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,57; 86,53</t>
+          <t>-48,58; 10,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-84,51; 47,17</t>
+          <t>-46,81; 17,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-81,12; 74,5</t>
+          <t>-51,0; 14,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,25; 165,53</t>
+          <t>-34,71; 31,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-1,2</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,04</t>
+          <t>-2,83; -0,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -0,36</t>
+          <t>-2,74; -0,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,46</t>
+          <t>-2,64; 0,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 2,83</t>
+          <t>-1,08; 3,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,66</t>
+          <t>-4,18; -0,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,31</t>
+          <t>-2,84; 0,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,95</t>
+          <t>-1,4; 1,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,64</t>
+          <t>-3,03; -0,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,84</t>
+          <t>-2,57; -0,08</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-60,34%</t>
+          <t>-52,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-76,17%</t>
+          <t>-51,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>-45,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>-43,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-30,15%</t>
+          <t>-16,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-15,29%</t>
+          <t>-2,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-22,83%</t>
+          <t>-45,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-12,97%</t>
+          <t>-30,04%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-88,94; 19,16</t>
+          <t>-81,6; 2,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -6,66</t>
+          <t>-81,93; 0,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,69; 225,85</t>
+          <t>-77,84; 3,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,24; 67,28</t>
+          <t>-17,26; 67,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,13; 59,14</t>
+          <t>-64,61; -13,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,89; 8,63</t>
+          <t>-41,52; 17,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,1; 31,11</t>
+          <t>-30,3; 37,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 23,58</t>
+          <t>-64,0; -22,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 28,8</t>
+          <t>-54,32; -1,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,61</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; -0,04</t>
+          <t>-1,64; 1,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,06</t>
+          <t>-1,75; 1,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,31</t>
+          <t>-0,93; 2,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,11</t>
+          <t>-1,83; 3,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; -0,6</t>
+          <t>-3,81; 0,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 0,57</t>
+          <t>-5,24; 0,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,23</t>
+          <t>-1,26; 1,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; -0,77</t>
+          <t>-2,19; 0,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,13</t>
+          <t>-2,17; 0,74</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-52,98%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-51,4%</t>
+          <t>-10,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-35,17%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-43,69%</t>
+          <t>-27,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-18,86%</t>
+          <t>-35,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-45,89%</t>
+          <t>-22,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-23,62%</t>
+          <t>-17,25%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,6; 2,79</t>
+          <t>-68,55; 208,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-81,93; 0,93</t>
+          <t>-66,43; 136,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,11; 23,37</t>
+          <t>-42,35; 225,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 67,04</t>
+          <t>-27,63; 77,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,61; -13,46</t>
+          <t>-55,55; 15,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,0; 14,33</t>
+          <t>-71,99; 0,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 37,78</t>
+          <t>-29,51; 65,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-64,0; -22,5</t>
+          <t>-50,51; 14,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 3,81</t>
+          <t>-49,3; 25,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,8</t>
+          <t>-2,24; 0,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,21</t>
+          <t>-2,4; 0,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,06</t>
+          <t>-1,88; 0,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 3,14</t>
+          <t>-0,9; 3,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,58</t>
+          <t>-1,78; 1,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 0,49</t>
+          <t>0,21; 4,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,8</t>
+          <t>-1,06; 1,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,44</t>
+          <t>-1,7; 0,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 0,97</t>
+          <t>-0,26; 2,24</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>-37,5%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,47%</t>
+          <t>-41,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>-19,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-27,51%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-26,91%</t>
+          <t>46,97%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-22,98%</t>
+          <t>-12,4%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-10,56%</t>
+          <t>26,52%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-68,55; 208,83</t>
+          <t>-70,42; 9,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-66,43; 136,5</t>
+          <t>-70,88; 13,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,69; 217,43</t>
+          <t>-55,2; 35,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 77,85</t>
+          <t>-17,52; 78,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-55,55; 15,89</t>
+          <t>-32,99; 53,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,04; 11,89</t>
+          <t>2,07; 112,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 65,5</t>
+          <t>-24,75; 41,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-50,51; 14,83</t>
+          <t>-38,68; 20,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 36,51</t>
+          <t>-5,93; 72,14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 0,17</t>
+          <t>-1,58; -0,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,14</t>
+          <t>-1,68; -0,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,69</t>
+          <t>-1,02; 0,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,02</t>
+          <t>-0,49; 1,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,97</t>
+          <t>-2,24; -0,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,52</t>
+          <t>-1,54; 0,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,31</t>
+          <t>-0,76; 0,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,64</t>
+          <t>-1,66; -0,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,37</t>
+          <t>-1,04; 0,31</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-37,5%</t>
+          <t>-40,44%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-41,24%</t>
+          <t>-42,92%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-19,08%</t>
+          <t>-10,97%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>-21,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>53,25%</t>
+          <t>-6,85%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-12,4%</t>
+          <t>-27,8%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>-7,56%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-70,42; 9,4</t>
+          <t>-61,02; -10,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-70,88; 13,59</t>
+          <t>-63,34; -16,04</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,36; 34,96</t>
+          <t>-40,11; 23,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 78,06</t>
+          <t>-8,75; 37,27</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-32,99; 53,95</t>
+          <t>-37,43; -2,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,3; 117,83</t>
+          <t>-26,28; 13,01</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 41,46</t>
+          <t>-18,28; 16,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-38,68; 20,91</t>
+          <t>-39,26; -13,36</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 75,66</t>
+          <t>-25,23; 8,76</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; -0,23</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,68; -0,29</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 0,49</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 1,79</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; -0,18</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 0,84</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 0,57</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,66; -0,45</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 0,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-40,44%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-42,92%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-5,49%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>13,04%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-21,96%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-3,24%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-2,31%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-27,8%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-2,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-61,02; -10,44</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-63,34; -16,04</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-32,74; 27,58</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-8,75; 37,27</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-37,43; -2,8</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-20,09; 18,03</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-18,28; 16,09</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-39,26; -13,36</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-17,86; 14,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 0,09</t>
+          <t>-2,4; 0,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 0,01</t>
+          <t>-2,62; -0,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,51</t>
+          <t>-0,69; 2,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,93</t>
+          <t>-3,0; 2,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,61</t>
+          <t>-3,15; 1,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 0,42</t>
+          <t>-3,64; 0,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,47</t>
+          <t>-2,17; 0,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 0,42</t>
+          <t>-2,36; 0,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,98</t>
+          <t>-1,54; 0,93</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-86,15; 28,96</t>
+          <t>-84,45; 14,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-89,09; 26,12</t>
+          <t>-91,23; 9,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 213,65</t>
+          <t>-28,98; 216,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,1; 41,46</t>
+          <t>-43,21; 44,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,66; 37,6</t>
+          <t>-44,01; 39,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,58; 10,92</t>
+          <t>-49,3; 6,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,81; 17,2</t>
+          <t>-46,75; 15,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,0; 14,33</t>
+          <t>-50,54; 9,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-34,71; 31,39</t>
+          <t>-32,22; 30,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; -0,04</t>
+          <t>-2,75; -0,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,06</t>
+          <t>-2,71; -0,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 0,07</t>
+          <t>-2,68; 0,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,11</t>
+          <t>-1,34; 3,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; -0,6</t>
+          <t>-4,16; -0,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,73</t>
+          <t>-2,97; 0,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,23</t>
+          <t>-1,56; 1,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; -0,77</t>
+          <t>-3,07; -0,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; -0,08</t>
+          <t>-2,63; -0,06</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,6; 2,79</t>
+          <t>-80,56; 0,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,93; 0,93</t>
+          <t>-77,72; 4,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-77,84; 3,97</t>
+          <t>-79,12; 6,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 67,04</t>
+          <t>-20,37; 71,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,61; -13,46</t>
+          <t>-63,9; -10,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 17,27</t>
+          <t>-43,65; 19,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 37,78</t>
+          <t>-32,52; 34,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,0; -22,5</t>
+          <t>-64,64; -21,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-54,32; -1,95</t>
+          <t>-56,66; -3,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,8</t>
+          <t>-1,79; 1,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,21</t>
+          <t>-1,86; 1,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,06</t>
+          <t>-1,04; 2,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 3,14</t>
+          <t>-1,84; 2,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,58</t>
+          <t>-3,71; 0,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 0,02</t>
+          <t>-4,55; 0,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,8</t>
+          <t>-1,17; 1,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,44</t>
+          <t>-2,34; 0,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 0,74</t>
+          <t>-2,12; 0,71</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-68,55; 208,83</t>
+          <t>-73,8; 202,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,43; 136,5</t>
+          <t>-66,99; 131,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 225,37</t>
+          <t>-44,53; 244,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 77,85</t>
+          <t>-28,0; 69,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,55; 15,89</t>
+          <t>-57,99; 14,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,99; 0,4</t>
+          <t>-66,41; 5,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 65,5</t>
+          <t>-27,01; 66,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,51; 14,83</t>
+          <t>-51,01; 14,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,3; 25,93</t>
+          <t>-49,56; 26,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 0,17</t>
+          <t>-2,31; 0,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,14</t>
+          <t>-2,34; 0,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,67</t>
+          <t>-1,88; 0,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,02</t>
+          <t>-0,89; 3,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,97</t>
+          <t>-1,7; 2,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 4,37</t>
+          <t>0,07; 4,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,31</t>
+          <t>-1,11; 1,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,64</t>
+          <t>-1,6; 0,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,24</t>
+          <t>-0,21; 2,27</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-70,42; 9,4</t>
+          <t>-67,72; 16,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,88; 13,59</t>
+          <t>-68,85; 18,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,2; 35,32</t>
+          <t>-56,84; 52,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 78,06</t>
+          <t>-16,38; 83,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,99; 53,95</t>
+          <t>-31,64; 57,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,07; 112,91</t>
+          <t>-0,51; 105,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 41,46</t>
+          <t>-25,88; 43,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,68; 20,91</t>
+          <t>-37,21; 21,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 72,14</t>
+          <t>-5,02; 71,3</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,58; -0,23</t>
+          <t>-1,57; -0,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,68; -0,29</t>
+          <t>-1,64; -0,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,46</t>
+          <t>-0,93; 0,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,79</t>
+          <t>-0,43; 1,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,24; -0,18</t>
+          <t>-2,23; -0,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,62</t>
+          <t>-1,62; 0,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,57</t>
+          <t>-0,73; 0,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,66; -0,45</t>
+          <t>-1,65; -0,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,31</t>
+          <t>-0,99; 0,37</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-61,02; -10,44</t>
+          <t>-59,11; -11,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-63,34; -16,04</t>
+          <t>-61,24; -16,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,11; 23,16</t>
+          <t>-36,26; 27,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 37,27</t>
+          <t>-7,92; 37,79</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,43; -2,8</t>
+          <t>-37,67; 0,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 13,01</t>
+          <t>-27,36; 13,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 16,09</t>
+          <t>-17,87; 17,27</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-39,26; -13,36</t>
+          <t>-40,7; -12,68</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 8,76</t>
+          <t>-24,21; 10,85</t>
         </is>
       </c>
     </row>
